--- a/_datasets/VARIABLES.xlsx
+++ b/_datasets/VARIABLES.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bekes.gabor\Dropbox (MTA KRTK)\bekes_kezdi_textbook\da_data_repo\hotels-europe\clean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (MTA KRTK)\bekes_kezdi_textbook\cases_studies_public\hotels-vienna\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
-    <sheet name="hotels" sheetId="1" r:id="rId1"/>
+    <sheet name="hotels-vienna" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>hotel_id</t>
   </si>
@@ -98,12 +98,6 @@
     <t>ratingta_count</t>
   </si>
   <si>
-    <t>hotel_prices</t>
-  </si>
-  <si>
-    <t>hotel_features</t>
-  </si>
-  <si>
     <t>Hotel ID</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>Flag, if day is a public holiday</t>
   </si>
   <si>
-    <t>Number of nights (1 or 4)</t>
-  </si>
-  <si>
     <t>Pricee in EUR</t>
   </si>
   <si>
@@ -195,12 +186,15 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of nights </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +239,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -261,7 +255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="A3:C18"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,211 +529,237 @@
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -747,101 +767,57 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
         <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
